--- a/Desafio/Modelo fisico.xlsx
+++ b/Desafio/Modelo fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Senai_Sprint1_BD\Desafio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Joao Augusto\Senai_Sprint1_BD\Desafio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B01F31-C3FC-44C1-A127-34906FA62F6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304A73C-114F-400D-A927-8431636FEF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="11520" xr2:uid="{A6ECA5E3-3537-4857-BB7F-5A422CBA1B54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>IdTipo</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Fer8</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -191,24 +194,24 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +531,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,287 +542,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>7</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>3</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>4</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>6</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>7</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
